--- a/number-cards-workbook.xlsx
+++ b/number-cards-workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ODI Drive\Delivery\Learning &amp; Training\Clients and partners and projects\KPMG CSL\CSL content development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucyknight/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F99DE-AEAA-42D8-9A5D-122070C4D907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F3D8C2-672B-7645-8510-6DC32BEF47B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="1575" windowWidth="23760" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4720" yWindow="1580" windowWidth="23760" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="number-cards" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'number-cards'!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'number-cards'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'number-cards'!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'number-cards'!$A$2:$A$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'number-cards'!$A$4:$A$23</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'number-cards'!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'number-cards'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'number-cards'!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'number-cards'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'number-cards'!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'number-cards'!$A$4:$A$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'number-cards'!$A$2:$A$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +276,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,8 +472,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -578,6 +600,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -623,18 +660,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -680,92 +718,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -783,7 +736,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.0</cx:f>
@@ -846,7 +799,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -906,7 +859,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3151,8 +3104,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4919662" y="7443787"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5427662" y="7443787"/>
+              <a:ext cx="5016500" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3229,8 +3182,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4595812" y="1300162"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5040312" y="1300162"/>
+              <a:ext cx="5080000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3642,8 +3595,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4593572" y="8334654"/>
-              <a:ext cx="4536141" cy="2743200"/>
+              <a:off x="5069448" y="8334654"/>
+              <a:ext cx="5080000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3762,19 +3715,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B4:E13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B4:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Summary stats" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Value" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B5DDCA27-3CBE-4C25-8461-24C749EB0573}" name="Formula" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3CF533C4-5AF6-47AA-B472-1BE7E32F9A90}" name="Notes" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4076,16 +4016,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4093,192 +4033,192 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>33750</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>33750</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>33750</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>33750</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>44000</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>44000</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>44000</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>45566</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>65000</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>95000</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>103500</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>112495</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>138188</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>141666</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>181500</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>185000</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>190000</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>194375</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>195000</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>205000</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>292500</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>301999</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>4600000</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>5600000</v>
       </c>
       <c r="B25" t="s">
@@ -4294,131 +4234,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="8"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
+    <row r="3" spans="2:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:6" ht="34" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:6" ht="34" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:6" ht="34" x14ac:dyDescent="0.4">
+      <c r="B7" s="2"/>
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:6" ht="34" x14ac:dyDescent="0.4">
+      <c r="B8" s="2"/>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:6" ht="34" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:6" ht="34" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2"/>
+    <row r="11" spans="2:6" ht="34" x14ac:dyDescent="0.4">
+      <c r="B11" s="2"/>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B13" s="2" t="s">
+    <row r="12" spans="2:6" ht="34" x14ac:dyDescent="0.4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F12" s="9">
         <v>0.17</v>
       </c>
     </row>
@@ -4428,9 +4372,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -4438,11 +4379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D1973-28F7-4E77-B85E-70590F264768}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4457,7 +4398,7 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>

--- a/number-cards-workbook.xlsx
+++ b/number-cards-workbook.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ODI Drive\Delivery\Learning &amp; Training\Clients and partners and projects\KPMG CSL\CSL content development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\davetaz\public_html\number-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F99DE-AEAA-42D8-9A5D-122070C4D907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D60801-1342-415A-A2C4-AFCB5086F7E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="1575" windowWidth="23760" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22410" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="number-cards" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary stats" sheetId="2" r:id="rId2"/>
-    <sheet name="Box plot" sheetId="4" r:id="rId3"/>
-    <sheet name="Histogram" sheetId="3" r:id="rId4"/>
+    <sheet name="second-set" sheetId="5" r:id="rId2"/>
+    <sheet name="Summary stats" sheetId="2" r:id="rId3"/>
+    <sheet name="Box plot" sheetId="4" r:id="rId4"/>
+    <sheet name="Histogram" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'number-cards'!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'number-cards'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'number-cards'!$A$4:$A$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'number-cards'!$A$2:$A$25</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'number-cards'!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'number-cards'!$A$2:$A$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'number-cards'!$A$4:$A$23</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'number-cards'!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'number-cards'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'number-cards'!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'number-cards'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'number-cards'!$A$2:$A$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Numbers</t>
   </si>
@@ -786,7 +782,7 @@
         <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -846,7 +842,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -906,7 +902,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3642,8 +3638,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4593572" y="8334654"/>
-              <a:ext cx="4536141" cy="2743200"/>
+              <a:off x="4624948" y="8334654"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4076,7 +4072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4293,6 +4289,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C248A15-90F2-4B99-B07B-6795B9C424A1}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>112495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>138188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>141666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>181500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>194375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>292500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>301999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E13"/>
   <sheetViews>
@@ -4434,7 +4575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D1973-28F7-4E77-B85E-70590F264768}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4449,7 +4590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4254BD-68CA-4F36-9BD8-65169B892259}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/number-cards-workbook.xlsx
+++ b/number-cards-workbook.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\davetaz\public_html\number-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D60801-1342-415A-A2C4-AFCB5086F7E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DC2D19-D93C-4424-B753-886E5B58CE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22410" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34290" yWindow="1980" windowWidth="17520" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="number-cards" sheetId="1" r:id="rId1"/>
-    <sheet name="second-set" sheetId="5" r:id="rId2"/>
+    <sheet name="number-cards" sheetId="5" r:id="rId1"/>
+    <sheet name="second-set" sheetId="1" r:id="rId2"/>
     <sheet name="Summary stats" sheetId="2" r:id="rId3"/>
     <sheet name="Box plot" sheetId="4" r:id="rId4"/>
     <sheet name="Histogram" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'number-cards'!$A$4:$A$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'number-cards'!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'number-cards'!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'number-cards'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'number-cards'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'number-cards'!$A$4:$A$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'second-set'!$A$4:$A$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'second-set'!$B$4:$B$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'second-set'!$A$4:$A$23</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'second-set'!$B$4:$B$23</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'second-set'!$A$4:$A$23</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'second-set'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'second-set'!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'second-set'!$A$2:$A$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -779,10 +785,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -842,7 +848,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -902,7 +908,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4069,11 +4075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C248A15-90F2-4B99-B07B-6795B9C424A1}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,215 +4091,140 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>33750</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>33750</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>33750</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>33750</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44000</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44000</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44000</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45566</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>65000</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>95000</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>103500</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>112495</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>138188</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>141666</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>181500</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>185000</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>190000</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>194375</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>195000</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>205000</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>292500</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>301999</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>4600000</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>5600000</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C248A15-90F2-4B99-B07B-6795B9C424A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4305,129 +4236,204 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>33750</v>
       </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>33750</v>
       </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>33750</v>
       </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>33750</v>
       </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44000</v>
       </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44000</v>
       </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44000</v>
       </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45566</v>
       </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>65000</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>95000</v>
       </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>103500</v>
       </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>112495</v>
       </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>138188</v>
       </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>141666</v>
       </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>181500</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>185000</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>190000</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>194375</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>195000</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>205000</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>292500</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>301999</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>4600000</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>5600000</v>
       </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/number-cards-workbook.xlsx
+++ b/number-cards-workbook.xlsx
@@ -1,35 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\davetaz\public_html\number-cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\davetaz\web-projects\number-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DC2D19-D93C-4424-B753-886E5B58CE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9266D850-E9D6-4FF8-A948-ECC5DBD07B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34290" yWindow="1980" windowWidth="17520" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="number-cards" sheetId="5" r:id="rId1"/>
-    <sheet name="second-set" sheetId="1" r:id="rId2"/>
+    <sheet name="with-categories" sheetId="1" r:id="rId2"/>
     <sheet name="Summary stats" sheetId="2" r:id="rId3"/>
     <sheet name="Box plot" sheetId="4" r:id="rId4"/>
     <sheet name="Histogram" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'number-cards'!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'number-cards'!$A$4:$A$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'second-set'!$A$4:$A$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'second-set'!$B$4:$B$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'second-set'!$A$4:$A$23</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'second-set'!$B$4:$B$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'second-set'!$A$4:$A$23</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'second-set'!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'second-set'!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'second-set'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'with-categories'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'with-categories'!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'with-categories'!$A$4:$A$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'with-categories'!$A$2:$A$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Numbers</t>
   </si>
@@ -117,10 +111,16 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Category 1</t>
+    <t>F</t>
   </si>
   <si>
-    <t>Category 2</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -625,14 +625,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -785,10 +783,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -848,7 +846,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -908,7 +906,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3780,9 +3778,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3820,7 +3818,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3926,7 +3924,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4068,7 +4066,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4076,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C248A15-90F2-4B99-B07B-6795B9C424A1}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,123 +4092,143 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>33750</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3">
         <v>33750</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4">
         <v>33750</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>33750</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6">
         <v>44000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>44000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>44000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>45566</v>
+      <c r="A9">
+        <v>44000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>65000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>103500</v>
-      </c>
-    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>112495</v>
+      <c r="A13">
+        <v>75000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>138188</v>
+      <c r="A14">
+        <v>80000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>141666</v>
+      <c r="A15">
+        <v>90000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>181500</v>
+      <c r="A16">
+        <v>112496</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>174375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>185000</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>190000</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>194375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>195000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>205000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>292500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>301999</v>
-      </c>
-    </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>292499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>4600000</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>5600000</v>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5000000</v>
       </c>
     </row>
   </sheetData>
@@ -4221,10 +4239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,15 +4259,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>33750</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3">
         <v>33750</v>
       </c>
       <c r="B3" t="s">
@@ -4257,7 +4275,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4">
         <v>33750</v>
       </c>
       <c r="B4" t="s">
@@ -4265,170 +4283,202 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>33750</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>44000</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>44000</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>44000</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>44000</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>45566</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>65000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>95000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>103500</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>112495</v>
+      <c r="A13">
+        <v>75000</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>80000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>90000</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>138188</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>112496</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>120000</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>141666</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>181500</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>185000</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>190000</v>
+      <c r="A18">
+        <v>125000</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>194375</v>
+      <c r="A19">
+        <v>145000</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>195000</v>
+      <c r="A20">
+        <v>170000</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>205000</v>
+      <c r="A21">
+        <v>174375</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>292500</v>
+      <c r="A22">
+        <v>185000</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>301999</v>
+      <c r="A23">
+        <v>190000</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24">
+        <v>200000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>275000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>292499</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3500000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>4600000</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>5600000</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5000000</v>
+      </c>
+      <c r="B29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4444,7 +4494,7 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4457,15 +4507,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="8"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
@@ -4562,10 +4612,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>0.17</v>
       </c>
     </row>
@@ -4585,8 +4635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D1973-28F7-4E77-B85E-70590F264768}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
